--- a/Excel/excel/GuideStepConfig.xlsx
+++ b/Excel/excel/GuideStepConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GuideStepConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GuideStepConfig!$A$4:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GuideStepConfig!$A$4:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -74,10 +74,13 @@
     <t>gType</t>
   </si>
   <si>
+    <t>sortId</t>
+  </si>
+  <si>
     <t>uiPath</t>
   </si>
   <si>
-    <t>sortId</t>
+    <t>moveEffect</t>
   </si>
   <si>
     <t>int</t>
@@ -92,10 +95,43 @@
     <t>type类型</t>
   </si>
   <si>
+    <t>步骤顺序</t>
+  </si>
+  <si>
     <t>ui路径</t>
   </si>
   <si>
-    <t>步骤顺序</t>
+    <t>动效名字</t>
+  </si>
+  <si>
+    <t>path:View_LoginMainView.ageBtn</t>
+  </si>
+  <si>
+    <t>move1</t>
+  </si>
+  <si>
+    <t>path:Window_GameAgeView.contentPane.frame.closeButton</t>
+  </si>
+  <si>
+    <t>move2</t>
+  </si>
+  <si>
+    <t>path:View_LoginMainView.stopBtn</t>
+  </si>
+  <si>
+    <t>path:View_LoginMainView.effectBtn</t>
+  </si>
+  <si>
+    <t>path:View_LoginMainView.serviceBtn</t>
+  </si>
+  <si>
+    <t>move3</t>
+  </si>
+  <si>
+    <t>path:Window_DialogTip1View.contentPane.frame.closeButton</t>
+  </si>
+  <si>
+    <t>move4</t>
   </si>
 </sst>
 </file>
@@ -838,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,13 +892,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="68">
@@ -1250,25 +1289,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="61.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,108 +1319,147 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:4">
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="4">
         <v>10011</v>
       </c>
       <c r="B4" s="5">
         <v>1001</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="4">
         <v>10012</v>
       </c>
       <c r="B5" s="5">
         <v>1001</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="2">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:4">
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="4">
         <v>10013</v>
       </c>
       <c r="B6" s="5">
         <v>1001</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:4">
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:5">
       <c r="A7" s="4">
         <v>10014</v>
       </c>
       <c r="B7" s="5">
         <v>1001</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:4">
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:5">
       <c r="A8" s="4">
         <v>10015</v>
       </c>
       <c r="B8" s="5">
         <v>1001</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2">
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:4">
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:5">
       <c r="A9" s="4">
         <v>10016</v>
       </c>
       <c r="B9" s="5">
         <v>1001</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2">
+      <c r="C9" s="2">
         <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:4">
@@ -1389,10 +1469,10 @@
       <c r="B10" s="7">
         <v>1002</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:4">
       <c r="A11" s="7">
@@ -1401,10 +1481,10 @@
       <c r="B11" s="7">
         <v>1002</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:4">
       <c r="A12" s="7">
@@ -1413,10 +1493,10 @@
       <c r="B12" s="7">
         <v>1002</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:4">
       <c r="A13" s="7">
@@ -1425,10 +1505,64 @@
       <c r="B13" s="7">
         <v>1002</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7">
+      <c r="C13" s="7">
         <v>4</v>
       </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">

--- a/Excel/excel/GuideStepConfig.xlsx
+++ b/Excel/excel/GuideStepConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27705" windowHeight="12975"/>
+    <workbookView windowWidth="25905" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GuideStepConfig" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GuideStepConfig!$A$4:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -66,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -83,6 +70,9 @@
     <t>moveEffect</t>
   </si>
   <si>
+    <t>maskLoader</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -101,13 +91,19 @@
     <t>ui路径</t>
   </si>
   <si>
-    <t>动效名字</t>
+    <t>手指动效名字</t>
+  </si>
+  <si>
+    <t>聚显示</t>
   </si>
   <si>
     <t>path:View_LoginMainView.ageBtn</t>
   </si>
   <si>
     <t>move1</t>
+  </si>
+  <si>
+    <t>ui://GuidePKG/guideMask21</t>
   </si>
   <si>
     <t>path:Window_GameAgeView.contentPane.frame.closeButton</t>
@@ -137,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -874,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,6 +888,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1289,27 +1288,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="61.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,42 +1325,51 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="4">
         <v>10011</v>
       </c>
@@ -1371,13 +1380,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="4">
         <v>10012</v>
       </c>
@@ -1388,13 +1400,14 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="4">
         <v>10013</v>
       </c>
@@ -1405,13 +1418,14 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="4">
         <v>10014</v>
       </c>
@@ -1422,13 +1436,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="4">
         <v>10015</v>
       </c>
@@ -1439,13 +1454,14 @@
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="4">
         <v>10016</v>
       </c>
@@ -1456,113 +1472,136 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:4">
-      <c r="A10" s="7">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:6">
+      <c r="A10" s="8">
         <v>10021</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>1002</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:4">
-      <c r="A11" s="7">
+      <c r="D10" s="9"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:6">
+      <c r="A11" s="8">
         <v>10022</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>1002</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:4">
-      <c r="A12" s="7">
+      <c r="D11" s="9"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:6">
+      <c r="A12" s="8">
         <v>10023</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>1002</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:4">
-      <c r="A13" s="7">
+      <c r="D12" s="9"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:6">
+      <c r="A13" s="8">
         <v>10024</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>1002</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">

--- a/Excel/excel/GuideStepConfig.xlsx
+++ b/Excel/excel/GuideStepConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="27705" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GuideStepConfig" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GuideStepConfig!$A$4:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,12 +61,71 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>若空则不显示手指</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>FGUI中有个组件名window,也就是window挖空的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是否点击完关闭guide页面
+1不关</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0关闭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执行多少秒后才算完成</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -73,12 +145,21 @@
     <t>maskLoader</t>
   </si>
   <si>
+    <t>closeMain</t>
+  </si>
+  <si>
+    <t>finishTime</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>key值</t>
   </si>
   <si>
@@ -94,53 +175,59 @@
     <t>手指动效名字</t>
   </si>
   <si>
-    <t>聚显示</t>
+    <t>mask显示</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>完成时间</t>
   </si>
   <si>
     <t>path:View_LoginMainView.ageBtn</t>
   </si>
   <si>
+    <t>move3</t>
+  </si>
+  <si>
+    <t>ui://GuidePKG/guideMask21</t>
+  </si>
+  <si>
+    <t>path:Window_GameAgeView.contentPane.frame.closeButton</t>
+  </si>
+  <si>
+    <t>ui://GuidePKG/guideMask22</t>
+  </si>
+  <si>
+    <t>path:View_LoginMainView.stopBtn</t>
+  </si>
+  <si>
     <t>move1</t>
   </si>
   <si>
-    <t>ui://GuidePKG/guideMask21</t>
-  </si>
-  <si>
-    <t>path:Window_GameAgeView.contentPane.frame.closeButton</t>
+    <t>path:View_LoginMainView.effectBtn</t>
   </si>
   <si>
     <t>move2</t>
   </si>
   <si>
-    <t>path:View_LoginMainView.stopBtn</t>
-  </si>
-  <si>
-    <t>path:View_LoginMainView.effectBtn</t>
-  </si>
-  <si>
-    <t>path:View_LoginMainView.serviceBtn</t>
-  </si>
-  <si>
-    <t>move3</t>
-  </si>
-  <si>
-    <t>path:Window_DialogTip1View.contentPane.frame.closeButton</t>
-  </si>
-  <si>
-    <t>move4</t>
+    <t>path:View_LoginMainView.noticeBtn</t>
+  </si>
+  <si>
+    <t>path:Window_GameNoticeView.contentPane.frame.closeButton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +411,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1288,17 +1381,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
@@ -1306,10 +1399,12 @@
     <col min="4" max="4" width="61.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,48 +1423,66 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:8">
       <c r="A4" s="4">
         <v>10011</v>
       </c>
@@ -1380,16 +1493,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:8">
       <c r="A5" s="4">
         <v>10012</v>
       </c>
@@ -1400,14 +1519,20 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:8">
       <c r="A6" s="4">
         <v>10013</v>
       </c>
@@ -1418,14 +1543,22 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:8">
       <c r="A7" s="4">
         <v>10014</v>
       </c>
@@ -1436,14 +1569,22 @@
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:8">
       <c r="A8" s="4">
         <v>10015</v>
       </c>
@@ -1454,14 +1595,22 @@
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:8">
       <c r="A9" s="4">
         <v>10016</v>
       </c>
@@ -1472,14 +1621,22 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
       <c r="A10" s="8">
         <v>10021</v>
       </c>
@@ -1491,8 +1648,14 @@
       </c>
       <c r="D10" s="9"/>
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:6">
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
       <c r="A11" s="8">
         <v>10022</v>
       </c>
@@ -1504,8 +1667,14 @@
       </c>
       <c r="D11" s="9"/>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:6">
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
       <c r="A12" s="8">
         <v>10023</v>
       </c>
@@ -1517,8 +1686,14 @@
       </c>
       <c r="D12" s="9"/>
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:6">
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
       <c r="A13" s="8">
         <v>10024</v>
       </c>
@@ -1530,78 +1705,102 @@
       </c>
       <c r="D13" s="9"/>
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="4:6">
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
       <c r="D14" s="10"/>
       <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="4:6">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="4:7">
       <c r="D15" s="10"/>
       <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="4:6">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="4:7">
       <c r="D16" s="10"/>
       <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="4:6">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="4:7">
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="4:6">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="4:7">
       <c r="D18" s="10"/>
       <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="4:6">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="4:7">
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="4:6">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="4:7">
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="4:6">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="4:7">
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="4:6">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="4:7">
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="4:6">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="4:7">
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="4:6">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="4:7">
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="4:6">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="4:7">
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="4:6">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="4:7">
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="4:6">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="4:7">
       <c r="D27" s="10"/>
       <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="4:6">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="4:7">
       <c r="D28" s="10"/>
       <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="4:6">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="4:7">
       <c r="D29" s="10"/>
       <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="4:6">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="4:7">
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="4:6">
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="4:7">
       <c r="D31" s="10"/>
       <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">

--- a/Excel/excel/GuideStepConfig.xlsx
+++ b/Excel/excel/GuideStepConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27705" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GuideStepConfig" sheetId="1" r:id="rId1"/>
@@ -85,6 +85,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">索引到GuideDescConfig.xlsx
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G3" authorId="0">
       <text>
         <r>
@@ -125,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +164,9 @@
     <t>finishTime</t>
   </si>
   <si>
+    <t>descId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -184,25 +200,28 @@
     <t>完成时间</t>
   </si>
   <si>
+    <t>指引文字说明</t>
+  </si>
+  <si>
     <t>path:View_LoginMainView.ageBtn</t>
   </si>
   <si>
     <t>move3</t>
   </si>
   <si>
+    <t>path:Window_GameAgeView.contentPane.frame.closeButton</t>
+  </si>
+  <si>
+    <t>ui://GuidePKG/guideMask22</t>
+  </si>
+  <si>
+    <t>path:View_LoginMainView.stopBtn</t>
+  </si>
+  <si>
+    <t>move1</t>
+  </si>
+  <si>
     <t>ui://GuidePKG/guideMask21</t>
-  </si>
-  <si>
-    <t>path:Window_GameAgeView.contentPane.frame.closeButton</t>
-  </si>
-  <si>
-    <t>ui://GuidePKG/guideMask22</t>
-  </si>
-  <si>
-    <t>path:View_LoginMainView.stopBtn</t>
-  </si>
-  <si>
-    <t>move1</t>
   </si>
   <si>
     <t>path:View_LoginMainView.effectBtn</t>
@@ -1381,17 +1400,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
@@ -1404,7 +1423,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,60 +1448,69 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="4">
         <v>10011</v>
       </c>
@@ -1493,22 +1521,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:8">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="4">
         <v>10012</v>
       </c>
@@ -1519,11 +1548,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>23</v>
+      </c>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1531,8 +1559,11 @@
       <c r="H5" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:8">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:9">
       <c r="A6" s="4">
         <v>10013</v>
       </c>
@@ -1543,13 +1574,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1557,8 +1588,11 @@
       <c r="H6" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:8">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:9">
       <c r="A7" s="4">
         <v>10014</v>
       </c>
@@ -1569,13 +1603,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1583,8 +1617,11 @@
       <c r="H7" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:8">
+      <c r="I7" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:9">
       <c r="A8" s="4">
         <v>10015</v>
       </c>
@@ -1595,13 +1632,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1609,8 +1646,11 @@
       <c r="H8" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:8">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:9">
       <c r="A9" s="4">
         <v>10016</v>
       </c>
@@ -1621,13 +1661,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1635,8 +1675,11 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A10" s="8">
         <v>10021</v>
       </c>
@@ -1654,8 +1697,11 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A11" s="8">
         <v>10022</v>
       </c>
@@ -1673,8 +1719,11 @@
       <c r="H11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A12" s="8">
         <v>10023</v>
       </c>
@@ -1692,8 +1741,11 @@
       <c r="H12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A13" s="8">
         <v>10024</v>
       </c>
@@ -1710,6 +1762,9 @@
       </c>
       <c r="H13" s="2">
         <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:7">

--- a/Excel/excel/GuideStepConfig.xlsx
+++ b/Excel/excel/GuideStepConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GuideStepConfig" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GuideStepConfig!$A$4:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -138,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -231,15 +218,12 @@
   </si>
   <si>
     <t>path:View_LoginMainView.noticeBtn</t>
-  </si>
-  <si>
-    <t>path:Window_GameNoticeView.contentPane.frame.closeButton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -982,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,9 +991,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1407,7 +1388,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1415,7 +1396,7 @@
     <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="61.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="58" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
@@ -1618,7 +1599,7 @@
         <v>0.3</v>
       </c>
       <c r="I7" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:9">
@@ -1660,9 +1641,7 @@
       <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1676,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
@@ -1689,13 +1668,17 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -1711,13 +1694,17 @@
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -1733,13 +1720,17 @@
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -1755,107 +1746,111 @@
       <c r="C13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="4:7">
-      <c r="D16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">

--- a/Excel/excel/GuideStepConfig.xlsx
+++ b/Excel/excel/GuideStepConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="27705" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GuideStepConfig" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GuideStepConfig!$A$4:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -68,7 +81,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>FGUI中有个组件名window,也就是window挖空的</t>
+          <t>FGUI中有个组件名window,也就是window挖空的
+GuidePKG包里的GComponent</t>
         </r>
       </text>
     </comment>
@@ -199,7 +213,7 @@
     <t>path:Window_GameAgeView.contentPane.frame.closeButton</t>
   </si>
   <si>
-    <t>ui://GuidePKG/guideMask22</t>
+    <t>guideMask22</t>
   </si>
   <si>
     <t>path:View_LoginMainView.stopBtn</t>
@@ -208,7 +222,7 @@
     <t>move1</t>
   </si>
   <si>
-    <t>ui://GuidePKG/guideMask21</t>
+    <t>guideMask21</t>
   </si>
   <si>
     <t>path:View_LoginMainView.effectBtn</t>
@@ -223,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -966,7 +980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -984,9 +998,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1388,7 +1399,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1398,7 +1409,7 @@
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="58" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
@@ -1507,7 +1518,7 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>0</v>
       </c>
@@ -1531,7 +1542,7 @@
       <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="2">
@@ -1560,7 +1571,7 @@
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="2">
@@ -1589,7 +1600,7 @@
       <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2">
@@ -1618,7 +1629,7 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2">
@@ -1645,7 +1656,7 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="2">
@@ -1659,19 +1670,19 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>10021</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>1002</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="2">
@@ -1685,19 +1696,19 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10022</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>1002</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="2">
@@ -1711,19 +1722,19 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>10023</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>1002</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="2">
@@ -1737,19 +1748,19 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>10024</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>1002</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2">
@@ -1763,94 +1774,77 @@
       </c>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="4:7">
-      <c r="D16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">

--- a/Excel/excel/GuideStepConfig.xlsx
+++ b/Excel/excel/GuideStepConfig.xlsx
@@ -428,12 +428,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1399,7 +1399,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1518,7 +1518,6 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>0</v>
       </c>
